--- a/REGULAR/RE-ENCODE/re encode/HERNANDEZ, MARIO.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/HERNANDEZ, MARIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1283,7 +1283,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>230.762</v>
+        <v>232.012</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1456,7 +1456,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>344.54</v>
+        <v>344.79</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3136,13 +3136,15 @@
         <v>45078</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3153,7 +3155,9 @@
       <c r="A90" s="40">
         <v>45108</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -3162,10 +3166,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45114</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
